--- a/data/train_data/vegf_testdata/VEGFA165_NRP1_02.3-39nm_Herve2008.xlsx
+++ b/data/train_data/vegf_testdata/VEGFA165_NRP1_02.3-39nm_Herve2008.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\GitHub\meta-analysis-for-VEGF-signaling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/ltukei_uw_edu/Documents/Desktop/GitHub/Data_extraction_kinetic_signaling_data/data/train_data/vegf_testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB68A7DD-17AE-4000-80BD-C816A1AC58E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AB68A7DD-17AE-4000-80BD-C816A1AC58E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBFB0AAE-6289-4008-B20F-1E8F3D40C1FB}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1920" windowWidth="15570" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -175,7 +175,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$B$1</c:f>
+              <c:f>sheet1!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -210,7 +210,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$52</c:f>
+              <c:f>sheet1!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -342,7 +342,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$52</c:f>
+              <c:f>sheet1!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -484,7 +484,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$D$1</c:f>
+              <c:f>sheet1!$D$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -519,7 +519,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$52</c:f>
+              <c:f>sheet1!$C$2:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -657,7 +657,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$52</c:f>
+              <c:f>sheet1!$D$2:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -805,7 +805,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$F$1</c:f>
+              <c:f>sheet1!$F$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -840,7 +840,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$52</c:f>
+              <c:f>sheet1!$E$2:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -984,7 +984,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$52</c:f>
+              <c:f>sheet1!$F$2:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1138,7 +1138,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1:$H$1</c:f>
+              <c:f>sheet1!$H$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1173,7 +1173,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$52</c:f>
+              <c:f>sheet1!$G$2:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1323,7 +1323,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$52</c:f>
+              <c:f>sheet1!$H$2:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1483,7 +1483,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1:$J$1</c:f>
+              <c:f>sheet1!$J$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1518,7 +1518,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$52</c:f>
+              <c:f>sheet1!$I$2:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1680,7 +1680,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$52</c:f>
+              <c:f>sheet1!$J$2:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2659,9 +2659,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2699,7 +2699,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2805,7 +2805,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2947,7 +2947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2958,7 +2958,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
